--- a/ExcelData/UI_TEST_ShopText.xlsx
+++ b/ExcelData/UI_TEST_ShopText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UE4_Shloc_Suite\ShlocToolsSuite\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UE4_Projects\UE4_Shloc_Suite\ShlocToolsSuite\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CCE15-3239-4F72-B55C-F16B79F3B73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE9FA1-454D-4AB3-A6DF-947E460C91B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1455" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopText" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1020,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1920</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1028,7 +1040,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1920</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1036,7 +1060,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1920</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1044,19 +1080,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>320</v>
+        <v>1920</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1064,19 +1100,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>320</v>
+        <v>1920</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1084,13 +1120,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
       <c r="C7">
-        <v>320</v>
+        <v>492</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1104,13 +1140,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>492</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1124,13 +1160,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>225</v>
+        <v>492</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1144,13 +1180,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>492</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1164,13 +1200,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>183</v>
+        <v>320</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1184,13 +1220,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1204,13 +1240,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>24</v>
       </c>
       <c r="C13">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1224,7 +1260,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>320</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -1232,7 +1280,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>310</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1280,13 +1340,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>492</v>
+        <v>225</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1300,13 +1360,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>492</v>
+        <v>183</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1320,13 +1380,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>492</v>
+        <v>130</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1340,13 +1400,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>24</v>
       </c>
       <c r="C21">
-        <v>492</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1360,13 +1420,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1380,19 +1440,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>1920</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -1400,19 +1448,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>1920</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -1420,19 +1456,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>1920</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1440,19 +1464,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>1920</v>
-      </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -1460,19 +1472,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>1920</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1543,6 +1543,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F35">
+    <sortCondition descending="1" ref="C2:C35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>